--- a/Code/test.xlsx
+++ b/Code/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laole/Documents/Projects/baike_spider/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bin/Desktop/SourceTree/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -65,7 +65,6 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,7 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,61 +436,6 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/test.xlsx
+++ b/Code/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Input</t>
   </si>
@@ -50,6 +50,9 @@
       <t>yun'ji'suan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-39</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,6 +439,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
